--- a/OR/Lang/PTBR/Data/chara_talk.xlsx
+++ b/OR/Lang/PTBR/Data/chara_talk.xlsx
@@ -11,7 +11,7 @@
     <sheet name="1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'1'!$A$2:$T$115</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'1'!$A$2:$T$119</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="256">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -83,6 +83,81 @@
   </si>
   <si>
     <t xml:space="preserve">hope</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">phrase_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">SpMeteor</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Meteor!
+Rain down, tears of the stars!
+Come forth, flame of the end. &amp;...Meteor!
+Stars, heed my voice...Meteor!
+There are no wishes left in this sky, &amp;no mercy left upon this earth. &amp;—then fall! Meteor!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barrel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ba～rrel♪
+Barrel!
+Barre~l!
+Barrel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phrase_ActSwarm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swarm!
+...Swarm!
+Begone!
+Etch this into your very soul! Swarm!
+Dance!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">phrase_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ActBladeStorm</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Blade Storm!
+I'll cut you to ribbons!
+This is the end!</t>
   </si>
   <si>
     <t xml:space="preserve">onFire</t>
@@ -1293,15 +1368,15 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1368,7 +1443,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1376,7 +1451,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1424,9 +1499,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>2383920</xdr:colOff>
+      <xdr:colOff>2381760</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1436,7 +1511,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="50988600" cy="132120"/>
+          <a:ext cx="50986440" cy="129960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1469,9 +1544,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>523440</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>70560</xdr:rowOff>
+      <xdr:colOff>521280</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>68400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1481,7 +1556,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="55516320" cy="36191160"/>
+          <a:ext cx="55514160" cy="38651760"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1616,14 +1691,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CM116"/>
+  <dimension ref="A1:CM120"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1802,161 +1877,121 @@
       <c r="AU3" s="3"/>
       <c r="AV3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="3" customFormat="true" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="AW4" s="1"/>
+    </row>
+    <row r="5" s="3" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="3"/>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="3"/>
-      <c r="AU5" s="3"/>
-      <c r="AV5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="AW5" s="1"/>
+    </row>
+    <row r="6" s="3" customFormat="true" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
-      <c r="AU6" s="3"/>
-      <c r="AV6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="AW6" s="1"/>
+    </row>
+    <row r="7" s="3" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
-      <c r="AV7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="AW7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="4"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
@@ -2023,13 +2058,14 @@
       <c r="AU9" s="3"/>
       <c r="AV9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="C10" s="4"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -2059,13 +2095,14 @@
       <c r="AU10" s="3"/>
       <c r="AV10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row r="11" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="C11" s="4"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
@@ -2095,14 +2132,14 @@
       <c r="AU11" s="3"/>
       <c r="AV11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="12" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="4"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
@@ -2132,13 +2169,14 @@
       <c r="AU12" s="3"/>
       <c r="AV12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="C13" s="4"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
@@ -2168,14 +2206,13 @@
       <c r="AU13" s="3"/>
       <c r="AV13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="4"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -2205,11 +2242,11 @@
       <c r="AU14" s="3"/>
       <c r="AV14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
       <c r="U15" s="3"/>
@@ -2241,13 +2278,14 @@
       <c r="AU15" s="3"/>
       <c r="AV15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="C16" s="5"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
@@ -2277,11 +2315,11 @@
       <c r="AU16" s="3"/>
       <c r="AV16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>47</v>
       </c>
       <c r="U17" s="3"/>
@@ -2313,13 +2351,14 @@
       <c r="AU17" s="3"/>
       <c r="AV17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="C18" s="4"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
@@ -2349,14 +2388,13 @@
       <c r="AU18" s="3"/>
       <c r="AV18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="4"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
@@ -2386,7 +2424,7 @@
       <c r="AU19" s="3"/>
       <c r="AV19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -2422,11 +2460,11 @@
       <c r="AU20" s="3"/>
       <c r="AV20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>55</v>
       </c>
       <c r="U21" s="3"/>
@@ -2458,12 +2496,12 @@
       <c r="AU21" s="3"/>
       <c r="AV21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
@@ -2494,13 +2532,14 @@
       <c r="AU22" s="3"/>
       <c r="AV22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="4"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
@@ -2530,12 +2569,12 @@
       <c r="AU23" s="3"/>
       <c r="AV23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
@@ -2566,12 +2605,12 @@
       <c r="AU24" s="3"/>
       <c r="AV24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="1" t="s">
         <v>62</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
@@ -2602,12 +2641,12 @@
       <c r="AU25" s="3"/>
       <c r="AV25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
@@ -2638,7 +2677,7 @@
       <c r="AU26" s="3"/>
       <c r="AV26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>65</v>
       </c>
@@ -2710,11 +2749,11 @@
       <c r="AU28" s="3"/>
       <c r="AV28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="1" t="s">
         <v>70</v>
       </c>
       <c r="U29" s="3"/>
@@ -2746,7 +2785,7 @@
       <c r="AU29" s="3"/>
       <c r="AV29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>71</v>
       </c>
@@ -2782,14 +2821,13 @@
       <c r="AU30" s="3"/>
       <c r="AV30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="4"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
@@ -2819,11 +2857,11 @@
       <c r="AU31" s="3"/>
       <c r="AV31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="4" t="s">
         <v>76</v>
       </c>
       <c r="U32" s="3"/>
@@ -2855,7 +2893,7 @@
       <c r="AU32" s="3"/>
       <c r="AV32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>77</v>
       </c>
@@ -2891,7 +2929,7 @@
       <c r="AU33" s="3"/>
       <c r="AV33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>79</v>
       </c>
@@ -2927,31 +2965,14 @@
       <c r="AU34" s="3"/>
       <c r="AV34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
+    <row r="35" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
+      <c r="C35" s="4"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
@@ -2981,31 +3002,13 @@
       <c r="AU35" s="3"/>
       <c r="AV35" s="3"/>
     </row>
-    <row r="36" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
@@ -3035,31 +3038,13 @@
       <c r="AU36" s="3"/>
       <c r="AV36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
+    <row r="37" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
@@ -3089,31 +3074,13 @@
       <c r="AU37" s="3"/>
       <c r="AV37" s="3"/>
     </row>
-    <row r="38" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
+    <row r="38" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
@@ -3143,11 +3110,11 @@
       <c r="AU38" s="3"/>
       <c r="AV38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C39" s="6"/>
@@ -3197,7 +3164,7 @@
       <c r="AU39" s="3"/>
       <c r="AV39" s="3"/>
     </row>
-    <row r="40" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
         <v>91</v>
       </c>
@@ -3251,11 +3218,11 @@
       <c r="AU40" s="3"/>
       <c r="AV40" s="3"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="4" t="s">
         <v>94</v>
       </c>
       <c r="C41" s="6"/>
@@ -3305,14 +3272,14 @@
       <c r="AU41" s="3"/>
       <c r="AV41" s="3"/>
     </row>
-    <row r="42" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="4"/>
+      <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -3359,13 +3326,31 @@
       <c r="AU42" s="3"/>
       <c r="AV42" s="3"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
+    <row r="43" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>98</v>
       </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
@@ -3395,13 +3380,31 @@
       <c r="AU43" s="3"/>
       <c r="AV43" s="3"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
+    <row r="44" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="4" t="s">
         <v>100</v>
       </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
@@ -3432,12 +3435,30 @@
       <c r="AV44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
@@ -3467,13 +3488,31 @@
       <c r="AU45" s="3"/>
       <c r="AV45" s="3"/>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
+    <row r="46" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="B46" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
@@ -3505,10 +3544,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
@@ -3539,12 +3578,12 @@
       <c r="AU47" s="3"/>
       <c r="AV47" s="3"/>
     </row>
-    <row r="48" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B48" s="4" t="s">
         <v>107</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
@@ -3577,10 +3616,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
@@ -3611,12 +3650,12 @@
       <c r="AU49" s="3"/>
       <c r="AV49" s="3"/>
     </row>
-    <row r="50" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
@@ -3652,7 +3691,7 @@
         <v>112</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
@@ -3683,12 +3722,12 @@
       <c r="AU51" s="3"/>
       <c r="AV51" s="3"/>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
@@ -3721,10 +3760,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
@@ -3755,12 +3794,12 @@
       <c r="AU53" s="3"/>
       <c r="AV53" s="3"/>
     </row>
-    <row r="54" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
@@ -3793,7 +3832,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
@@ -3824,12 +3866,12 @@
       <c r="AU55" s="3"/>
       <c r="AV55" s="3"/>
     </row>
-    <row r="56" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
@@ -3862,10 +3904,10 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
@@ -3895,54 +3937,13 @@
       <c r="AT57" s="3"/>
       <c r="AU57" s="3"/>
       <c r="AV57" s="3"/>
-      <c r="AY57" s="3"/>
-      <c r="AZ57" s="3"/>
-      <c r="BA57" s="3"/>
-      <c r="BB57" s="3"/>
-      <c r="BC57" s="3"/>
-      <c r="BD57" s="3"/>
-      <c r="BE57" s="3"/>
-      <c r="BF57" s="3"/>
-      <c r="BG57" s="3"/>
-      <c r="BH57" s="3"/>
-      <c r="BI57" s="3"/>
-      <c r="BJ57" s="3"/>
-      <c r="BK57" s="3"/>
-      <c r="BL57" s="3"/>
-      <c r="BM57" s="3"/>
-      <c r="BN57" s="3"/>
-      <c r="BO57" s="3"/>
-      <c r="BP57" s="3"/>
-      <c r="BQ57" s="3"/>
-      <c r="BR57" s="3"/>
-      <c r="BS57" s="3"/>
-      <c r="BT57" s="3"/>
-      <c r="BU57" s="3"/>
-      <c r="BV57" s="3"/>
-      <c r="BW57" s="3"/>
-      <c r="BX57" s="3"/>
-      <c r="BY57" s="3"/>
-      <c r="BZ57" s="3"/>
-      <c r="CA57" s="3"/>
-      <c r="CB57" s="3"/>
-      <c r="CC57" s="3"/>
-      <c r="CD57" s="3"/>
-      <c r="CE57" s="3"/>
-      <c r="CF57" s="3"/>
-      <c r="CG57" s="3"/>
-      <c r="CH57" s="3"/>
-      <c r="CI57" s="3"/>
-      <c r="CJ57" s="3"/>
-      <c r="CK57" s="3"/>
-      <c r="CL57" s="3"/>
-      <c r="CM57" s="3"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="58" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B58" s="1" t="s">
         <v>123</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
@@ -3972,53 +3973,9 @@
       <c r="AT58" s="3"/>
       <c r="AU58" s="3"/>
       <c r="AV58" s="3"/>
-      <c r="AY58" s="3"/>
-      <c r="AZ58" s="3"/>
-      <c r="BA58" s="3"/>
-      <c r="BB58" s="3"/>
-      <c r="BC58" s="3"/>
-      <c r="BD58" s="3"/>
-      <c r="BE58" s="3"/>
-      <c r="BF58" s="3"/>
-      <c r="BG58" s="3"/>
-      <c r="BH58" s="3"/>
-      <c r="BI58" s="3"/>
-      <c r="BJ58" s="3"/>
-      <c r="BK58" s="3"/>
-      <c r="BL58" s="3"/>
-      <c r="BM58" s="3"/>
-      <c r="BN58" s="3"/>
-      <c r="BO58" s="3"/>
-      <c r="BP58" s="3"/>
-      <c r="BQ58" s="3"/>
-      <c r="BR58" s="3"/>
-      <c r="BS58" s="3"/>
-      <c r="BT58" s="3"/>
-      <c r="BU58" s="3"/>
-      <c r="BV58" s="3"/>
-      <c r="BW58" s="3"/>
-      <c r="BX58" s="3"/>
-      <c r="BY58" s="3"/>
-      <c r="BZ58" s="3"/>
-      <c r="CA58" s="3"/>
-      <c r="CB58" s="3"/>
-      <c r="CC58" s="3"/>
-      <c r="CD58" s="3"/>
-      <c r="CE58" s="3"/>
-      <c r="CF58" s="3"/>
-      <c r="CG58" s="3"/>
-      <c r="CH58" s="3"/>
-      <c r="CI58" s="3"/>
-      <c r="CJ58" s="3"/>
-      <c r="CK58" s="3"/>
-      <c r="CL58" s="3"/>
-      <c r="CM58" s="3"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B59" s="1" t="s">
         <v>125</v>
       </c>
       <c r="U59" s="3"/>
@@ -4049,49 +4006,8 @@
       <c r="AT59" s="3"/>
       <c r="AU59" s="3"/>
       <c r="AV59" s="3"/>
-      <c r="AY59" s="3"/>
-      <c r="AZ59" s="3"/>
-      <c r="BA59" s="3"/>
-      <c r="BB59" s="3"/>
-      <c r="BC59" s="3"/>
-      <c r="BD59" s="3"/>
-      <c r="BE59" s="3"/>
-      <c r="BF59" s="3"/>
-      <c r="BG59" s="3"/>
-      <c r="BH59" s="3"/>
-      <c r="BI59" s="3"/>
-      <c r="BJ59" s="3"/>
-      <c r="BK59" s="3"/>
-      <c r="BL59" s="3"/>
-      <c r="BM59" s="3"/>
-      <c r="BN59" s="3"/>
-      <c r="BO59" s="3"/>
-      <c r="BP59" s="3"/>
-      <c r="BQ59" s="3"/>
-      <c r="BR59" s="3"/>
-      <c r="BS59" s="3"/>
-      <c r="BT59" s="3"/>
-      <c r="BU59" s="3"/>
-      <c r="BV59" s="3"/>
-      <c r="BW59" s="3"/>
-      <c r="BX59" s="3"/>
-      <c r="BY59" s="3"/>
-      <c r="BZ59" s="3"/>
-      <c r="CA59" s="3"/>
-      <c r="CB59" s="3"/>
-      <c r="CC59" s="3"/>
-      <c r="CD59" s="3"/>
-      <c r="CE59" s="3"/>
-      <c r="CF59" s="3"/>
-      <c r="CG59" s="3"/>
-      <c r="CH59" s="3"/>
-      <c r="CI59" s="3"/>
-      <c r="CJ59" s="3"/>
-      <c r="CK59" s="3"/>
-      <c r="CL59" s="3"/>
-      <c r="CM59" s="3"/>
-    </row>
-    <row r="60" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="60" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>126</v>
       </c>
@@ -4126,53 +4042,12 @@
       <c r="AT60" s="3"/>
       <c r="AU60" s="3"/>
       <c r="AV60" s="3"/>
-      <c r="AY60" s="3"/>
-      <c r="AZ60" s="3"/>
-      <c r="BA60" s="3"/>
-      <c r="BB60" s="3"/>
-      <c r="BC60" s="3"/>
-      <c r="BD60" s="3"/>
-      <c r="BE60" s="3"/>
-      <c r="BF60" s="3"/>
-      <c r="BG60" s="3"/>
-      <c r="BH60" s="3"/>
-      <c r="BI60" s="3"/>
-      <c r="BJ60" s="3"/>
-      <c r="BK60" s="3"/>
-      <c r="BL60" s="3"/>
-      <c r="BM60" s="3"/>
-      <c r="BN60" s="3"/>
-      <c r="BO60" s="3"/>
-      <c r="BP60" s="3"/>
-      <c r="BQ60" s="3"/>
-      <c r="BR60" s="3"/>
-      <c r="BS60" s="3"/>
-      <c r="BT60" s="3"/>
-      <c r="BU60" s="3"/>
-      <c r="BV60" s="3"/>
-      <c r="BW60" s="3"/>
-      <c r="BX60" s="3"/>
-      <c r="BY60" s="3"/>
-      <c r="BZ60" s="3"/>
-      <c r="CA60" s="3"/>
-      <c r="CB60" s="3"/>
-      <c r="CC60" s="3"/>
-      <c r="CD60" s="3"/>
-      <c r="CE60" s="3"/>
-      <c r="CF60" s="3"/>
-      <c r="CG60" s="3"/>
-      <c r="CH60" s="3"/>
-      <c r="CI60" s="3"/>
-      <c r="CJ60" s="3"/>
-      <c r="CK60" s="3"/>
-      <c r="CL60" s="3"/>
-      <c r="CM60" s="3"/>
-    </row>
-    <row r="61" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="1" t="s">
         <v>129</v>
       </c>
       <c r="U61" s="3"/>
@@ -4245,11 +4120,11 @@
       <c r="CL61" s="3"/>
       <c r="CM61" s="3"/>
     </row>
-    <row r="62" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="1" t="s">
         <v>131</v>
       </c>
       <c r="U62" s="3"/>
@@ -4322,11 +4197,11 @@
       <c r="CL62" s="3"/>
       <c r="CM62" s="3"/>
     </row>
-    <row r="63" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="1" t="s">
         <v>133</v>
       </c>
       <c r="U63" s="3"/>
@@ -4399,7 +4274,7 @@
       <c r="CL63" s="3"/>
       <c r="CM63" s="3"/>
     </row>
-    <row r="64" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>134</v>
       </c>
@@ -4476,11 +4351,11 @@
       <c r="CL64" s="3"/>
       <c r="CM64" s="3"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="4" t="s">
         <v>137</v>
       </c>
       <c r="U65" s="3"/>
@@ -4553,7 +4428,7 @@
       <c r="CL65" s="3"/>
       <c r="CM65" s="3"/>
     </row>
-    <row r="66" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>138</v>
       </c>
@@ -4630,12 +4505,12 @@
       <c r="CL66" s="3"/>
       <c r="CM66" s="3"/>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>102</v>
+      <c r="B67" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
@@ -4707,12 +4582,12 @@
       <c r="CL67" s="3"/>
       <c r="CM67" s="3"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>102</v>
+        <v>142</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
@@ -4786,10 +4661,10 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
@@ -4861,12 +4736,12 @@
       <c r="CL69" s="3"/>
       <c r="CM69" s="3"/>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>102</v>
+        <v>146</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
@@ -4940,10 +4815,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
@@ -5017,10 +4892,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
@@ -5092,12 +4967,12 @@
       <c r="CL72" s="3"/>
       <c r="CM72" s="3"/>
     </row>
-    <row r="73" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
@@ -5171,10 +5046,10 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
@@ -5246,12 +5121,12 @@
       <c r="CL74" s="3"/>
       <c r="CM74" s="3"/>
     </row>
-    <row r="75" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
@@ -5325,11 +5200,39 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>153</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3"/>
+      <c r="AA76" s="3"/>
+      <c r="AB76" s="3"/>
+      <c r="AC76" s="3"/>
+      <c r="AD76" s="3"/>
+      <c r="AE76" s="3"/>
+      <c r="AF76" s="3"/>
+      <c r="AG76" s="3"/>
+      <c r="AH76" s="3"/>
+      <c r="AI76" s="3"/>
+      <c r="AJ76" s="3"/>
+      <c r="AK76" s="3"/>
+      <c r="AL76" s="3"/>
+      <c r="AM76" s="3"/>
+      <c r="AN76" s="3"/>
+      <c r="AO76" s="3"/>
+      <c r="AP76" s="3"/>
+      <c r="AQ76" s="3"/>
+      <c r="AR76" s="3"/>
+      <c r="AS76" s="3"/>
+      <c r="AT76" s="3"/>
+      <c r="AU76" s="3"/>
+      <c r="AV76" s="3"/>
       <c r="AY76" s="3"/>
       <c r="AZ76" s="3"/>
       <c r="BA76" s="3"/>
@@ -5372,13 +5275,41 @@
       <c r="CL76" s="3"/>
       <c r="CM76" s="3"/>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="B77" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="3"/>
+      <c r="Z77" s="3"/>
+      <c r="AA77" s="3"/>
+      <c r="AB77" s="3"/>
+      <c r="AC77" s="3"/>
+      <c r="AD77" s="3"/>
+      <c r="AE77" s="3"/>
+      <c r="AF77" s="3"/>
+      <c r="AG77" s="3"/>
+      <c r="AH77" s="3"/>
+      <c r="AI77" s="3"/>
+      <c r="AJ77" s="3"/>
+      <c r="AK77" s="3"/>
+      <c r="AL77" s="3"/>
+      <c r="AM77" s="3"/>
+      <c r="AN77" s="3"/>
+      <c r="AO77" s="3"/>
+      <c r="AP77" s="3"/>
+      <c r="AQ77" s="3"/>
+      <c r="AR77" s="3"/>
+      <c r="AS77" s="3"/>
+      <c r="AT77" s="3"/>
+      <c r="AU77" s="3"/>
+      <c r="AV77" s="3"/>
       <c r="AY77" s="3"/>
       <c r="AZ77" s="3"/>
       <c r="BA77" s="3"/>
@@ -5422,9 +5353,40 @@
       <c r="CM77" s="3"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="s">
-        <v>155</v>
-      </c>
+      <c r="A78" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="3"/>
+      <c r="AA78" s="3"/>
+      <c r="AB78" s="3"/>
+      <c r="AC78" s="3"/>
+      <c r="AD78" s="3"/>
+      <c r="AE78" s="3"/>
+      <c r="AF78" s="3"/>
+      <c r="AG78" s="3"/>
+      <c r="AH78" s="3"/>
+      <c r="AI78" s="3"/>
+      <c r="AJ78" s="3"/>
+      <c r="AK78" s="3"/>
+      <c r="AL78" s="3"/>
+      <c r="AM78" s="3"/>
+      <c r="AN78" s="3"/>
+      <c r="AO78" s="3"/>
+      <c r="AP78" s="3"/>
+      <c r="AQ78" s="3"/>
+      <c r="AR78" s="3"/>
+      <c r="AS78" s="3"/>
+      <c r="AT78" s="3"/>
+      <c r="AU78" s="3"/>
+      <c r="AV78" s="3"/>
       <c r="AY78" s="3"/>
       <c r="AZ78" s="3"/>
       <c r="BA78" s="3"/>
@@ -5467,13 +5429,41 @@
       <c r="CL78" s="3"/>
       <c r="CM78" s="3"/>
     </row>
-    <row r="79" customFormat="false" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>157</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="3"/>
+      <c r="Z79" s="3"/>
+      <c r="AA79" s="3"/>
+      <c r="AB79" s="3"/>
+      <c r="AC79" s="3"/>
+      <c r="AD79" s="3"/>
+      <c r="AE79" s="3"/>
+      <c r="AF79" s="3"/>
+      <c r="AG79" s="3"/>
+      <c r="AH79" s="3"/>
+      <c r="AI79" s="3"/>
+      <c r="AJ79" s="3"/>
+      <c r="AK79" s="3"/>
+      <c r="AL79" s="3"/>
+      <c r="AM79" s="3"/>
+      <c r="AN79" s="3"/>
+      <c r="AO79" s="3"/>
+      <c r="AP79" s="3"/>
+      <c r="AQ79" s="3"/>
+      <c r="AR79" s="3"/>
+      <c r="AS79" s="3"/>
+      <c r="AT79" s="3"/>
+      <c r="AU79" s="3"/>
+      <c r="AV79" s="3"/>
       <c r="AY79" s="3"/>
       <c r="AZ79" s="3"/>
       <c r="BA79" s="3"/>
@@ -5518,10 +5508,10 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="AY80" s="3"/>
       <c r="AZ80" s="3"/>
@@ -5565,12 +5555,12 @@
       <c r="CL80" s="3"/>
       <c r="CM80" s="3"/>
     </row>
-    <row r="81" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="AY81" s="3"/>
       <c r="AZ81" s="3"/>
@@ -5614,31 +5604,10 @@
       <c r="CL81" s="3"/>
       <c r="CM81" s="3"/>
     </row>
-    <row r="82" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="6"/>
-      <c r="S82" s="6"/>
-      <c r="T82" s="6"/>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="AY82" s="3"/>
       <c r="AZ82" s="3"/>
       <c r="BA82" s="3"/>
@@ -5681,12 +5650,12 @@
       <c r="CL82" s="3"/>
       <c r="CM82" s="3"/>
     </row>
-    <row r="83" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AY83" s="3"/>
       <c r="AZ83" s="3"/>
@@ -5730,12 +5699,12 @@
       <c r="CL83" s="3"/>
       <c r="CM83" s="3"/>
     </row>
-    <row r="84" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B84" s="4" t="s">
         <v>166</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="AY84" s="3"/>
       <c r="AZ84" s="3"/>
@@ -5779,7 +5748,7 @@
       <c r="CL84" s="3"/>
       <c r="CM84" s="3"/>
     </row>
-    <row r="85" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>167</v>
       </c>
@@ -5828,122 +5797,286 @@
       <c r="CL85" s="3"/>
       <c r="CM85" s="3"/>
     </row>
-    <row r="86" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
+    <row r="86" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="6" t="s">
         <v>169</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
+      <c r="AY86" s="3"/>
+      <c r="AZ86" s="3"/>
+      <c r="BA86" s="3"/>
+      <c r="BB86" s="3"/>
+      <c r="BC86" s="3"/>
+      <c r="BD86" s="3"/>
+      <c r="BE86" s="3"/>
+      <c r="BF86" s="3"/>
+      <c r="BG86" s="3"/>
+      <c r="BH86" s="3"/>
+      <c r="BI86" s="3"/>
+      <c r="BJ86" s="3"/>
+      <c r="BK86" s="3"/>
+      <c r="BL86" s="3"/>
+      <c r="BM86" s="3"/>
+      <c r="BN86" s="3"/>
+      <c r="BO86" s="3"/>
+      <c r="BP86" s="3"/>
+      <c r="BQ86" s="3"/>
+      <c r="BR86" s="3"/>
+      <c r="BS86" s="3"/>
+      <c r="BT86" s="3"/>
+      <c r="BU86" s="3"/>
+      <c r="BV86" s="3"/>
+      <c r="BW86" s="3"/>
+      <c r="BX86" s="3"/>
+      <c r="BY86" s="3"/>
+      <c r="BZ86" s="3"/>
+      <c r="CA86" s="3"/>
+      <c r="CB86" s="3"/>
+      <c r="CC86" s="3"/>
+      <c r="CD86" s="3"/>
+      <c r="CE86" s="3"/>
+      <c r="CF86" s="3"/>
+      <c r="CG86" s="3"/>
+      <c r="CH86" s="3"/>
+      <c r="CI86" s="3"/>
+      <c r="CJ86" s="3"/>
+      <c r="CK86" s="3"/>
+      <c r="CL86" s="3"/>
+      <c r="CM86" s="3"/>
+    </row>
+    <row r="87" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="4"/>
-      <c r="S87" s="4"/>
-      <c r="T87" s="4"/>
-    </row>
-    <row r="88" customFormat="false" ht="231.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="7" t="s">
+      <c r="AY87" s="3"/>
+      <c r="AZ87" s="3"/>
+      <c r="BA87" s="3"/>
+      <c r="BB87" s="3"/>
+      <c r="BC87" s="3"/>
+      <c r="BD87" s="3"/>
+      <c r="BE87" s="3"/>
+      <c r="BF87" s="3"/>
+      <c r="BG87" s="3"/>
+      <c r="BH87" s="3"/>
+      <c r="BI87" s="3"/>
+      <c r="BJ87" s="3"/>
+      <c r="BK87" s="3"/>
+      <c r="BL87" s="3"/>
+      <c r="BM87" s="3"/>
+      <c r="BN87" s="3"/>
+      <c r="BO87" s="3"/>
+      <c r="BP87" s="3"/>
+      <c r="BQ87" s="3"/>
+      <c r="BR87" s="3"/>
+      <c r="BS87" s="3"/>
+      <c r="BT87" s="3"/>
+      <c r="BU87" s="3"/>
+      <c r="BV87" s="3"/>
+      <c r="BW87" s="3"/>
+      <c r="BX87" s="3"/>
+      <c r="BY87" s="3"/>
+      <c r="BZ87" s="3"/>
+      <c r="CA87" s="3"/>
+      <c r="CB87" s="3"/>
+      <c r="CC87" s="3"/>
+      <c r="CD87" s="3"/>
+      <c r="CE87" s="3"/>
+      <c r="CF87" s="3"/>
+      <c r="CG87" s="3"/>
+      <c r="CH87" s="3"/>
+      <c r="CI87" s="3"/>
+      <c r="CJ87" s="3"/>
+      <c r="CK87" s="3"/>
+      <c r="CL87" s="3"/>
+      <c r="CM87" s="3"/>
+    </row>
+    <row r="88" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
-      <c r="Q88" s="4"/>
-      <c r="R88" s="4"/>
-      <c r="S88" s="4"/>
-      <c r="T88" s="4"/>
-    </row>
-    <row r="89" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AY88" s="3"/>
+      <c r="AZ88" s="3"/>
+      <c r="BA88" s="3"/>
+      <c r="BB88" s="3"/>
+      <c r="BC88" s="3"/>
+      <c r="BD88" s="3"/>
+      <c r="BE88" s="3"/>
+      <c r="BF88" s="3"/>
+      <c r="BG88" s="3"/>
+      <c r="BH88" s="3"/>
+      <c r="BI88" s="3"/>
+      <c r="BJ88" s="3"/>
+      <c r="BK88" s="3"/>
+      <c r="BL88" s="3"/>
+      <c r="BM88" s="3"/>
+      <c r="BN88" s="3"/>
+      <c r="BO88" s="3"/>
+      <c r="BP88" s="3"/>
+      <c r="BQ88" s="3"/>
+      <c r="BR88" s="3"/>
+      <c r="BS88" s="3"/>
+      <c r="BT88" s="3"/>
+      <c r="BU88" s="3"/>
+      <c r="BV88" s="3"/>
+      <c r="BW88" s="3"/>
+      <c r="BX88" s="3"/>
+      <c r="BY88" s="3"/>
+      <c r="BZ88" s="3"/>
+      <c r="CA88" s="3"/>
+      <c r="CB88" s="3"/>
+      <c r="CC88" s="3"/>
+      <c r="CD88" s="3"/>
+      <c r="CE88" s="3"/>
+      <c r="CF88" s="3"/>
+      <c r="CG88" s="3"/>
+      <c r="CH88" s="3"/>
+      <c r="CI88" s="3"/>
+      <c r="CJ88" s="3"/>
+      <c r="CK88" s="3"/>
+      <c r="CL88" s="3"/>
+      <c r="CM88" s="3"/>
+    </row>
+    <row r="89" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4"/>
-      <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
-      <c r="Q89" s="4"/>
-      <c r="R89" s="4"/>
-      <c r="S89" s="4"/>
-      <c r="T89" s="4"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AY89" s="3"/>
+      <c r="AZ89" s="3"/>
+      <c r="BA89" s="3"/>
+      <c r="BB89" s="3"/>
+      <c r="BC89" s="3"/>
+      <c r="BD89" s="3"/>
+      <c r="BE89" s="3"/>
+      <c r="BF89" s="3"/>
+      <c r="BG89" s="3"/>
+      <c r="BH89" s="3"/>
+      <c r="BI89" s="3"/>
+      <c r="BJ89" s="3"/>
+      <c r="BK89" s="3"/>
+      <c r="BL89" s="3"/>
+      <c r="BM89" s="3"/>
+      <c r="BN89" s="3"/>
+      <c r="BO89" s="3"/>
+      <c r="BP89" s="3"/>
+      <c r="BQ89" s="3"/>
+      <c r="BR89" s="3"/>
+      <c r="BS89" s="3"/>
+      <c r="BT89" s="3"/>
+      <c r="BU89" s="3"/>
+      <c r="BV89" s="3"/>
+      <c r="BW89" s="3"/>
+      <c r="BX89" s="3"/>
+      <c r="BY89" s="3"/>
+      <c r="BZ89" s="3"/>
+      <c r="CA89" s="3"/>
+      <c r="CB89" s="3"/>
+      <c r="CC89" s="3"/>
+      <c r="CD89" s="3"/>
+      <c r="CE89" s="3"/>
+      <c r="CF89" s="3"/>
+      <c r="CG89" s="3"/>
+      <c r="CH89" s="3"/>
+      <c r="CI89" s="3"/>
+      <c r="CJ89" s="3"/>
+      <c r="CK89" s="3"/>
+      <c r="CL89" s="3"/>
+      <c r="CM89" s="3"/>
+    </row>
+    <row r="90" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
         <v>180</v>
       </c>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4"/>
+      <c r="S91" s="4"/>
+      <c r="T91" s="4"/>
+    </row>
+    <row r="92" customFormat="false" ht="231.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="7" t="s">
+        <v>181</v>
+      </c>
       <c r="B92" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>182</v>
+      </c>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="4"/>
+    </row>
+    <row r="93" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -5964,153 +6097,153 @@
       <c r="S93" s="4"/>
       <c r="T93" s="4"/>
     </row>
-    <row r="94" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B94" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
-      <c r="P94" s="4"/>
-      <c r="Q94" s="4"/>
-      <c r="R94" s="4"/>
-      <c r="S94" s="4"/>
-      <c r="T94" s="4"/>
-    </row>
-    <row r="95" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C95" s="4" t="s">
+    </row>
+    <row r="96" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="B96" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E95" s="4" t="s">
+    </row>
+    <row r="97" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="B97" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="G95" s="4" t="s">
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4"/>
+      <c r="S97" s="4"/>
+      <c r="T97" s="4"/>
+    </row>
+    <row r="98" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H95" s="4" t="s">
+      <c r="B98" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="I95" s="4" t="s">
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4"/>
+      <c r="S98" s="4"/>
+      <c r="T98" s="4"/>
+    </row>
+    <row r="99" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J95" s="4" t="s">
+      <c r="B99" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="K95" s="4" t="s">
+      <c r="C99" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="L95" s="4" t="s">
+      <c r="D99" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="M95" s="4" t="s">
+      <c r="E99" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="N95" s="4" t="s">
+      <c r="F99" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="O95" s="4" t="s">
+      <c r="G99" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="P95" s="4" t="s">
+      <c r="H99" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="Q95" s="4" t="s">
+      <c r="I99" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="R95" s="4" t="s">
+      <c r="J99" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="S95" s="4" t="s">
+      <c r="K99" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="T95" s="4" t="s">
+      <c r="L99" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
+      <c r="M99" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="N99" s="4" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
+      <c r="O99" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="P99" s="4" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="6" t="s">
+      <c r="Q99" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="R99" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
-      <c r="M98" s="6"/>
-      <c r="N98" s="6"/>
-      <c r="O98" s="6"/>
-      <c r="P98" s="6"/>
-      <c r="Q98" s="6"/>
-      <c r="R98" s="6"/>
-      <c r="S98" s="6"/>
-      <c r="T98" s="6"/>
-    </row>
-    <row r="99" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
+      <c r="S99" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="T99" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>216</v>
       </c>
@@ -6118,89 +6251,53 @@
         <v>217</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
+    <row r="102" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="L102" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="N102" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="O102" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P102" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q102" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="R102" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="S102" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="T102" s="1" t="s">
-        <v>219</v>
-      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
+      <c r="O102" s="6"/>
+      <c r="P102" s="6"/>
+      <c r="Q102" s="6"/>
+      <c r="R102" s="6"/>
+      <c r="S102" s="6"/>
+      <c r="T102" s="6"/>
     </row>
     <row r="103" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="8" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6211,8 +6308,62 @@
       <c r="B106" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q106" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="R106" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="S106" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="T106" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>228</v>
       </c>
@@ -6220,7 +6371,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>230</v>
       </c>
@@ -6228,19 +6379,19 @@
         <v>231</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -6252,7 +6403,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>238</v>
       </c>
@@ -6268,19 +6419,19 @@
         <v>241</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="4" t="s">
         <v>245</v>
       </c>
     </row>
@@ -6292,8 +6443,40 @@
         <v>247</v>
       </c>
     </row>
+    <row r="117" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:T115"/>
+  <autoFilter ref="A2:T119"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
